--- a/ocms/src/test/resources/TestData/OCMChatAnalysisCountReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatAnalysisCountReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="7710" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14445" windowHeight="6495" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
     <sheet name="AdvanceSearch" sheetId="7" r:id="rId7"/>
+    <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q24"/>
+  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>Report Channel</t>
   </si>
@@ -43,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -59,6 +57,113 @@
   </si>
   <si>
     <t>OCM Chat Analysis Count Report</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Is  not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Starts with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ends with </t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>01-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>19-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT [MENU] as [Menu],sum([ACCESSCOUNT]) AS [AccessCount],sum([INVALIDINPUT]) AS [Invalid Input],sum([NOINPUT]) AS [No Input] ,
+sum([MAXTRIES]) AS [Max Tries] ,sum([AgentTransfers]) AS [Agent Transfers] ,
+sum([CHATDISCONNECTS]) AS [Chat Disconnects] from (SELECT MAX(TabAccessCount.MENU_NAME) as Menu, 
+   TabAccessCount.SUM_II AS InvalidInput,
+   TabAccessCount.SUM_NI AS NoInput,
+    '' as [Language],
+   ISNULL(TabAccessCount.Cnt,0) AS AccessCount, 
+   TabAccessCount.Max_Tries AS MaxTries,
+   ISNULL(TabAgentTranfer.Cnt,0) as AgentTransfers,
+   ISNULL(TabChatDisconnect.Cnt,0) as ChatDisconnects,
+   TabAccessCount.EndDateTime,
+   TabAccessCount.SessionID,
+   TabAccessCount.MenuID,
+   TabAccessCount.MenuOrder
+ FROM  (
+   SELECT distinct CHAT_MENU_DESC.MENU_NAME,SUM(CAST(CHAT_USAGE.EII AS INT)) as SUM_II , SUM(CAST(CHAT_USAGE.ENI AS INT)) AS SUM_NI,
+   SUM(CAST(CHAT_USAGE.EMC AS INT)) AS Max_Tries, COUNT(1) AS Cnt,
+   ENDDATETIME as EndDateTime,
+   CHAT_USAGE.SessionID as SessionID,CHAT_MENU_DESC.MENU_ID as MenuID,CHAT_USAGE.[ORDER] as MenuOrder
+   FROM CHAT_USAGE with(nolock)
+   INNER JOIN CHAT_MENU_DESC with(nolock) ON CHAT_USAGE.ID = CHAT_MENU_DESC.MENU_ID
+   inner JOIN CHAT_CALL_HISTORY with(nolock) ON CHAT_USAGE.SessionID=CHAT_CALL_HISTORY.SessionID
+   WHERE ENDDATETIME &gt;= 'ReportBeforeDate' and ENDDATETIME &lt;= 'ReportAfterDate'
+   GROUP BY CHAT_USAGE.SessionID,ENDDATETIME,CHAT_MENU_DESC.MENU_NAME,CHAT_MENU_DESC.MENU_ID,CHAT_USAGE.[ORDER]
+ ) as TabAccessCount
+ LEFT JOIN ( 
+    SELECT CHAT_MENU_DESC.MENU_NAME, COUNT(1) AS Cnt ,CHAT_CALL_HISTORY.SessionID
+    FROM CHAT_CALL_HISTORY with(nolock) 
+ INNER JOIN CHAT_MENU_DESC with(nolock) ON CHAT_CALL_HISTORY.LAST_MENU_ID = CHAT_MENU_DESC.MENU_NAME
+    WHERE ENDDATETIME &gt;= 'ReportBeforeDate' and ENDDATETIME &lt;= 'ReportAfterDate' AND 
+ (CHAT_CALL_HISTORY.TR_DIS_FLAG = 'AT' OR CHAT_CALL_HISTORY.TR_DIS_FLAG = 'AF') 
+    GROUP BY CHAT_CALL_HISTORY.SessionID,CHAT_MENU_DESC.MENU_NAME
+ ) as TabAgentTranfer on TabAgentTranfer.MENU_NAME = TabAccessCount.MENU_NAME and TabAgentTranfer.SessionID = TabAccessCount.SessionID
+ LEFT JOIN (
+       SELECT CHAT_MENU_DESC.MENU_NAME , COUNT(1) AS Cnt ,CHAT_CALL_HISTORY.SessionID
+       FROM CHAT_CALL_HISTORY with(nolock) 
+    INNER JOIN CHAT_MENU_DESC with(nolock) ON CHAT_CALL_HISTORY.LAST_MENU_ID = CHAT_MENU_DESC.MENU_NAME
+       WHERE 
+    ENDDATETIME &gt;= 'ReportBeforeDate' and ENDDATETIME &lt;= 'ReportAfterDate' AND 
+    (CHAT_CALL_HISTORY.TR_DIS_FLAG = 'DC') 
+       GROUP BY CHAT_CALL_HISTORY.SessionID,CHAT_MENU_DESC.MENU_NAME
+ ) as TabChatDisconnect on TabChatDisconnect.MENU_NAME = TabAccessCount.MENU_NAME and TabChatDisconnect.SessionID = TabAccessCount.SessionID
+ GROUP BY TabAccessCount.EndDateTime, TabAccessCount.MENU_NAME,TabAccessCount.SUM_II,TabAccessCount.SUM_NI,TabAccessCount.Max_Tries,TabAccessCount.Cnt,TabAgentTranfer.Cnt,TabChatDisconnect.Cnt
+ ,TabAccessCount.SessionID,TabAccessCount.MenuID,TabAccessCount.MenuOrder) M  Group by M.Menu;
+</t>
+  </si>
+  <si>
+    <t>10-06-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>DeleteReason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
   </si>
 </sst>
 </file>
@@ -94,9 +199,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -157,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -192,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,7 +484,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -380,7 +495,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,16 +522,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -426,10 +541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,9 +554,11 @@
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,28 +569,159 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -485,7 +733,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,16 +760,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +782,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,27 +805,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +838,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,16 +865,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +887,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,27 +910,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -692,15 +940,158 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ocms/src/test/resources/TestData/OCMChatAnalysisCountReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMChatAnalysisCountReport.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A47C226-B781-43B0-AC06-9D9F04915066}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14445" windowHeight="6495" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,6 @@
     <sheet name="Queries" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G20"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="42">
   <si>
     <t>Report Channel</t>
   </si>
@@ -165,11 +170,44 @@
   <si>
     <t>Deleted</t>
   </si>
+  <si>
+    <t>01-01-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>01-02-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>AxisBuzz</t>
+  </si>
+  <si>
+    <t>DFC</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>CICI</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Buzz</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -199,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -210,6 +248,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,29 +528,29 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.81640625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -540,25 +584,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" customWidth="1"/>
+    <col min="7" max="7" width="16.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,7 +631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -616,7 +660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -642,7 +686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -668,7 +712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -694,7 +738,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,7 +764,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
     </row>
   </sheetData>
@@ -729,22 +773,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" customWidth="1"/>
+    <col min="2" max="2" width="33.453125" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -758,7 +802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -778,23 +822,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -811,7 +855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -834,22 +878,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,23 +927,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,25 +983,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" customWidth="1"/>
+    <col min="9" max="9" width="18.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +1032,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1015,44 +1061,173 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
